--- a/Documentation/Parameter Dictionary.xlsx
+++ b/Documentation/Parameter Dictionary.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="report exhibit" sheetId="2" r:id="rId2"/>
+    <sheet name="current params" sheetId="1" r:id="rId1"/>
+    <sheet name="old params" sheetId="3" r:id="rId2"/>
+    <sheet name="report exhibit" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="304">
   <si>
     <t>Purpose: Dictionary for policy_simulation() function parameters</t>
   </si>
@@ -911,11 +912,44 @@
   <si>
     <t>Draw from place of residence</t>
   </si>
+  <si>
+    <t>xvar_wgts</t>
+  </si>
+  <si>
+    <t>Weights to assign x-variables for those imputation methods that require it</t>
+  </si>
+  <si>
+    <t>Any positive number</t>
+  </si>
+  <si>
+    <t>1 for each xvar</t>
+  </si>
+  <si>
+    <t>Weight for each xvar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There must be 1 value for every x variable in this list. Weights are mapped by sequential list position to x variables. </t>
+  </si>
+  <si>
+    <t>exclusive_particip</t>
+  </si>
+  <si>
+    <t>Whether participation in the program excludes employer payments and vice versa</t>
+  </si>
+  <si>
+    <t>Exclusive participation only</t>
+  </si>
+  <si>
+    <t>Lots of tests originally run as TRUE, but later interviews revealed this to be false for at least some states</t>
+  </si>
+  <si>
+    <t>Dual participation allowed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1029,8 +1063,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I85" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I88" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I88"/>
   <tableColumns count="9">
     <tableColumn id="1" name="GUI Input Label" dataDxfId="8"/>
     <tableColumn id="8" name="Location in GUI" dataDxfId="7"/>
@@ -1321,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2931,80 +2965,6 @@
       </c>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F76" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H76" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F78" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="2"/>
-      <c r="F79" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H79" s="4"/>
-    </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
@@ -3026,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="2"/>
@@ -3038,7 +2998,7 @@
       </c>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>284</v>
@@ -3059,7 +3019,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
@@ -3068,7 +3028,7 @@
       </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>289</v>
@@ -3089,7 +3049,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="2"/>
@@ -3100,6 +3060,68 @@
         <v>292</v>
       </c>
       <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>299</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F86" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F87" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="2"/>
+      <c r="F89" s="5"/>
+      <c r="H89" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3110,6 +3132,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>

--- a/Documentation/Parameter Dictionary.xlsx
+++ b/Documentation/Parameter Dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpatterson\AnacondaProjects\microsim_R\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC09C3FD-9D83-43BA-AAEA-0EEE934DF78F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="current params" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="308">
   <si>
     <t>Purpose: Dictionary for policy_simulation() function parameters</t>
   </si>
@@ -945,11 +946,23 @@
   <si>
     <t>Dual participation allowed</t>
   </si>
+  <si>
+    <t>SMOTE</t>
+  </si>
+  <si>
+    <t>Whether to apply SMOTE to correct for class imbalance in FMLA data</t>
+  </si>
+  <si>
+    <t>Do not apply SMOTE to FMLA data</t>
+  </si>
+  <si>
+    <t>Apply SMOTE to FMLA data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1047,7 +1060,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="1">
+    <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
     </tableStyle>
   </tableStyles>
@@ -1063,30 +1076,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:I88" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A3:I88"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:I90" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I90" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="GUI Input Label" dataDxfId="8"/>
-    <tableColumn id="8" name="Location in GUI" dataDxfId="7"/>
-    <tableColumn id="9" name="Parameter" dataDxfId="6"/>
-    <tableColumn id="2" name="Description" dataDxfId="5"/>
-    <tableColumn id="3" name="Value type" dataDxfId="4"/>
-    <tableColumn id="4" name="Valid Values" dataDxfId="3"/>
-    <tableColumn id="5" name="Value Label" dataDxfId="2"/>
-    <tableColumn id="6" name="Default Value" dataDxfId="1"/>
-    <tableColumn id="7" name="Notes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="GUI Input Label" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Location in GUI" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Parameter" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Value type" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Valid Values" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Value Label" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Default Value" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C61" totalsRowShown="0">
-  <autoFilter ref="A1:C61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C61" totalsRowShown="0">
+  <autoFilter ref="A1:C61" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="impute_method"/>
-    <tableColumn id="2" name="Default Value"/>
-    <tableColumn id="3" name="Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="impute_method"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Default Value"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1354,32 +1367,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="E68" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
     <col min="2" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="69.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="69.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="33.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="40.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>148</v>
       </c>
@@ -1408,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
@@ -1434,7 +1447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1448,7 +1461,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1462,7 +1475,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1485,7 +1498,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>113</v>
       </c>
@@ -1514,7 +1527,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
@@ -1526,7 +1539,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>114</v>
       </c>
@@ -1549,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>115</v>
       </c>
@@ -1572,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
@@ -1584,7 +1597,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -1607,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>119</v>
       </c>
@@ -1633,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>120</v>
       </c>
@@ -1659,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
@@ -1685,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -1697,7 +1710,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>122</v>
       </c>
@@ -1723,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>126</v>
       </c>
@@ -1749,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>127</v>
       </c>
@@ -1775,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>128</v>
       </c>
@@ -1801,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>129</v>
       </c>
@@ -1827,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>130</v>
       </c>
@@ -1853,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>131</v>
       </c>
@@ -1876,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>117</v>
       </c>
@@ -1905,7 +1918,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>132</v>
       </c>
@@ -1931,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -1943,7 +1956,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>134</v>
       </c>
@@ -1969,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -1995,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>135</v>
       </c>
@@ -2021,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
@@ -2044,7 +2057,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
@@ -2067,7 +2080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>127</v>
       </c>
@@ -2090,7 +2103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>128</v>
       </c>
@@ -2113,7 +2126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>129</v>
       </c>
@@ -2136,7 +2149,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>130</v>
       </c>
@@ -2159,7 +2172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>136</v>
       </c>
@@ -2182,7 +2195,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>137</v>
       </c>
@@ -2205,7 +2218,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>138</v>
       </c>
@@ -2228,7 +2241,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>139</v>
       </c>
@@ -2251,7 +2264,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>140</v>
       </c>
@@ -2277,7 +2290,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>155</v>
       </c>
@@ -2298,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>141</v>
       </c>
@@ -2324,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -2336,7 +2349,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>142</v>
       </c>
@@ -2362,7 +2375,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
@@ -2388,7 +2401,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>144</v>
       </c>
@@ -2414,7 +2427,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>145</v>
       </c>
@@ -2440,7 +2453,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>146</v>
       </c>
@@ -2463,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>147</v>
       </c>
@@ -2489,7 +2502,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>109</v>
       </c>
@@ -2509,7 +2522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D52" s="2"/>
       <c r="F52" s="5" t="s">
         <v>42</v>
@@ -2519,7 +2532,7 @@
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>152</v>
       </c>
@@ -2539,7 +2552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
@@ -2551,7 +2564,7 @@
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>153</v>
       </c>
@@ -2571,7 +2584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="2"/>
@@ -2583,7 +2596,7 @@
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>154</v>
       </c>
@@ -2603,7 +2616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
@@ -2615,7 +2628,7 @@
       </c>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
         <v>160</v>
@@ -2639,7 +2652,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
         <v>161</v>
@@ -2663,7 +2676,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
         <v>164</v>
@@ -2687,7 +2700,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
         <v>171</v>
@@ -2709,7 +2722,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
         <v>177</v>
@@ -2733,7 +2746,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
         <v>178</v>
@@ -2757,7 +2770,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
         <v>179</v>
@@ -2781,7 +2794,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
         <v>180</v>
@@ -2805,7 +2818,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>181</v>
@@ -2829,7 +2842,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
         <v>182</v>
@@ -2853,7 +2866,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
         <v>189</v>
@@ -2877,7 +2890,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
         <v>193</v>
@@ -2898,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -2910,7 +2923,7 @@
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
         <v>197</v>
@@ -2921,7 +2934,7 @@
       <c r="F72" s="5"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
         <v>200</v>
@@ -2932,7 +2945,7 @@
       <c r="F73" s="5"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
         <v>201</v>
@@ -2953,7 +2966,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -2965,7 +2978,7 @@
       </c>
       <c r="H75" s="4"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
         <v>280</v>
@@ -2986,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="2"/>
@@ -2998,7 +3011,7 @@
       </c>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>284</v>
@@ -3019,7 +3032,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
@@ -3028,7 +3041,7 @@
       </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
         <v>289</v>
@@ -3049,7 +3062,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="2"/>
@@ -3061,7 +3074,7 @@
       </c>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>299</v>
       </c>
@@ -3084,7 +3097,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F87" s="5" t="s">
         <v>42</v>
       </c>
@@ -3092,7 +3105,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
         <v>293</v>
@@ -3116,12 +3129,38 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="2"/>
-      <c r="F89" s="5"/>
-      <c r="H89" s="4"/>
+      <c r="C89" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="2"/>
+      <c r="F90" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H90" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3132,16 +3171,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -3170,7 +3209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>205</v>
       </c>
@@ -3193,7 +3232,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
         <v>208</v>
       </c>
@@ -3205,7 +3244,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>206</v>
       </c>
@@ -3228,7 +3267,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="D5" s="2"/>
       <c r="F5" s="5" t="s">
         <v>42</v>
@@ -3244,21 +3283,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>217</v>
       </c>
@@ -3269,7 +3308,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>218</v>
       </c>
@@ -3280,7 +3319,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -3291,7 +3330,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>221</v>
       </c>
@@ -3302,7 +3341,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -3313,7 +3352,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -3324,7 +3363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>226</v>
       </c>
@@ -3335,7 +3374,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>228</v>
       </c>
@@ -3346,7 +3385,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>229</v>
       </c>
@@ -3357,7 +3396,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>231</v>
       </c>
@@ -3368,7 +3407,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -3379,7 +3418,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -3390,7 +3429,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -3401,7 +3440,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -3412,7 +3451,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -3423,7 +3462,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>234</v>
       </c>
@@ -3434,7 +3473,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>235</v>
       </c>
@@ -3445,7 +3484,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>237</v>
       </c>
@@ -3456,7 +3495,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -3467,7 +3506,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -3478,7 +3517,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>241</v>
       </c>
@@ -3489,7 +3528,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -3500,7 +3539,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -3511,7 +3550,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -3522,7 +3561,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -3533,7 +3572,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -3544,7 +3583,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -3555,7 +3594,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -3566,7 +3605,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>247</v>
       </c>
@@ -3577,7 +3616,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>250</v>
       </c>
@@ -3588,7 +3627,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>253</v>
       </c>
@@ -3599,7 +3638,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>256</v>
       </c>
@@ -3610,7 +3649,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>259</v>
       </c>
@@ -3621,7 +3660,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>261</v>
       </c>
@@ -3632,7 +3671,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>263</v>
       </c>
@@ -3643,7 +3682,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>265</v>
       </c>
@@ -3654,7 +3693,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>267</v>
       </c>
@@ -3665,7 +3704,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>269</v>
       </c>
@@ -3676,7 +3715,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>271</v>
       </c>
@@ -3687,7 +3726,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>273</v>
       </c>
@@ -3698,7 +3737,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -3709,7 +3748,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -3720,7 +3759,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -3731,7 +3770,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -3742,7 +3781,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -3753,7 +3792,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -3764,7 +3803,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -3775,7 +3814,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>171</v>
       </c>
@@ -3786,7 +3825,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>276</v>
       </c>
@@ -3797,7 +3836,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>178</v>
       </c>
@@ -3808,7 +3847,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>179</v>
       </c>
@@ -3819,7 +3858,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>180</v>
       </c>
@@ -3830,7 +3869,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>181</v>
       </c>
@@ -3841,7 +3880,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>182</v>
       </c>
@@ -3852,7 +3891,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -3863,7 +3902,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>193</v>
       </c>
@@ -3874,7 +3913,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>197</v>
       </c>
@@ -3885,7 +3924,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -3896,7 +3935,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>201</v>
       </c>
@@ -3907,7 +3946,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>205</v>
       </c>
@@ -3918,7 +3957,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>206</v>
       </c>
@@ -3926,7 +3965,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>153</v>
       </c>
